--- a/biology/Neurosciences/Polysomnographie/Polysomnographie.xlsx
+++ b/biology/Neurosciences/Polysomnographie/Polysomnographie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La polysomnographie (ou polygraphie du sommeil) est un examen médical consistant à enregistrer, au cours du sommeil du patient, plusieurs variables physiologiques (rythme respiratoire, rythme cardiaque, électroencéphalogramme, électromyogramme des muscles des bras ou des jambes...) afin de déterminer certains troubles liés au sommeil, dont les apnées ou syndrome d’apnées obstructives du sommeil (SAOS).
 </t>
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Dans l'étude des troubles du sommeil il est important de distinguer deux types d'examens :
 la polygraphie respiratoire qui permet, selon les appareils, d'enregistrer différents signaux respiratoires, qui associés entre eux permettent de détecter des anomalies respiratoires.
@@ -543,7 +557,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le principe de la polysomnographie est de capter l’information nécessaire pour analyser la respiration et le sommeil de la personne concernée. Les électrodes et les bandes posées amassent les données (le nombre et la durée des apnées ou d’autres problèmes qui perturbent le sommeil) pour permettre au médecin d’établir un diagnostic.
 </t>
@@ -574,7 +590,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La polysomnographie est un examen pratiqué lors d'une inquiétude sérieuse comme
 une somnolence diurne excessive, des pauses respiratoires ou des impressions d'étouffement de courte durée pendant le sommeil, des ronflements excessifs, des réveils fréquents, des fatigues au réveil matinal, des difficultés de concentration, des assoupissements au volant, ou encore des maux de tête au réveil.
@@ -606,7 +624,9 @@
           <t>Réalisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs mesures sont effectuées :
 mouvements respiratoires (par des sangles autour du thorax et de l'abdomen ou par la mesure de l'impédance thoracique, variable avec le mouvement de la respiration),
@@ -662,7 +682,9 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Une vérification de la qualité du tracé est effectuée en temps réel durant la nuit par le personnel infirmier, et un premier survol de l'enregistrement est effectué le lendemain matin par le médecin.
 En revanche, le résultat complet n'est disponible que plusieurs jours après l'enregistrement compte tenu de la quantité d'informations à analyser. Selon les établissements de santé, il peut être remis et expliqué au patient en consultation.
